--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Using Functions, Creating Tables, and Managing Large Workbooks/Weekly Sales.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Using Functions, Creating Tables, and Managing Large Workbooks/Weekly Sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Using Functions, Creating Tables, and Managing Large Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Using Functions^J Creating Tables^J and Managing Large Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_FF134E05A01AB7F4649505B48475BA486353CCC7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35F6EFDB-EBC4-4A52-941E-B1584488BD9F}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_FF134E05A01AB7F4649505B48475BA486353CCC7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4419530B-A41C-4821-B0F2-40132E55179B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,11 +33,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
   <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
     <t>Recorded on:</t>
   </si>
   <si>
@@ -50,25 +74,10 @@
     <t>Tea Roses</t>
   </si>
   <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
+    <t>Online Sales</t>
+  </si>
+  <si>
+    <t>In-Store Sales</t>
   </si>
   <si>
     <t>Week of May 24</t>
@@ -86,7 +95,7 @@
     <t>Rose Plants and Rose Supplies: Weekly Online Sales</t>
   </si>
   <si>
-    <t>Rose Plants and Rose Supplies: Weekly In-Store Sales</t>
+    <t>Rose Plants and Supplies: Weekly In-Store Sales</t>
   </si>
   <si>
     <t>Total</t>
@@ -99,21 +108,16 @@
   </si>
   <si>
     <t>Rose Sales</t>
-  </si>
-  <si>
-    <t>Online Sales</t>
-  </si>
-  <si>
-    <t>In-Store Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -122,13 +126,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -145,6 +142,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -203,37 +207,38 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="4" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Title" xfId="3" builtinId="15"/>
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F6A7F8-4985-4F22-A51B-399CF50A47A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED0C097-4ABA-4012-A2E0-DD18B0A3CBB7}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -519,100 +524,96 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <f>'Online Sales'!E12</f>
         <v>43460.560000000005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f>'Online Sales'!F12</f>
         <v>13349.449999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f>SUM(C5:D5)</f>
         <v>56810.01</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
         <f>'In-Store Sales'!E12</f>
-        <v>32739.310000000005</v>
-      </c>
-      <c r="D6" s="1">
+        <v>32957.58</v>
+      </c>
+      <c r="D6" s="4">
         <f>'In-Store Sales'!F12</f>
         <v>11138.119999999999</v>
       </c>
-      <c r="E6" s="1">
-        <f>SUM(C6:D6)</f>
-        <v>43877.430000000008</v>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E7" si="0">SUM(C6:D6)</f>
+        <v>44095.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8">
         <f>SUM(C5:C6)</f>
-        <v>76199.87000000001</v>
-      </c>
-      <c r="D7" s="4">
+        <v>76418.140000000014</v>
+      </c>
+      <c r="D7" s="8">
         <f>SUM(D5:D6)</f>
         <v>24487.57</v>
       </c>
-      <c r="E7" s="4">
-        <f>SUM(C7:D7)</f>
-        <v>100687.44</v>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>100905.71000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -623,10 +624,13 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9B93CA4F-D52C-4803-B2F6-907EAC3FE6D0}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{6C6C8CF1-3FC1-471E-BE72-2A2D64A70BA9}">
           <x14:colorSeries theme="7"/>
           <x14:colorNegative theme="8"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -642,7 +646,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{E156D754-7646-4F28-AE44-29A274FD3AC6}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{10055F97-F15B-4441-A80E-A97538EB554D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -668,279 +672,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
         <v>1911.51</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>2026.46</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>2033.47</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f>SUM(B5:D5)</f>
         <v>5971.4400000000005</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>1926.49</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f>E5+F5</f>
         <v>7897.93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
         <v>2310.4899999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>2313.85</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>1782.64</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
         <v>6406.9800000000005</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>1526.03</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G11" si="1">E6+F6</f>
         <v>7933.01</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
         <v>1942.37</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>2402.9899999999998</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2030.08</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>6375.44</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>1853.82</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>8229.26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
         <v>2185.89</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>1992.29</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>2253.98</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>6432.16</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>1922.36</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>8354.52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
         <v>2003.53</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>1825.79</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>2340.34</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>6169.66</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>1973.73</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>8143.3899999999994</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
         <v>1931.46</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>1946.92</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>1966.92</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>5845.3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>2121.4699999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>7966.77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
         <v>2047.23</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1978.23</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>2234.12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>6259.58</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>2025.55</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>8285.1299999999992</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8">
         <f>SUM(B5:B11)</f>
         <v>14332.48</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:G12" si="2">SUM(C5:C11)</f>
+      <c r="C12" s="8">
+        <f>SUM(C5:C11)</f>
         <v>14486.53</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="2"/>
+      <c r="D12" s="8">
+        <f>SUM(D5:D11)</f>
         <v>14641.55</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="2"/>
+      <c r="E12" s="8">
+        <f>SUM(E5:E11)</f>
         <v>43460.560000000005</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
+      <c r="F12" s="8">
+        <f>SUM(F5:F11)</f>
         <v>13349.449999999999</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
+      <c r="G12" s="8">
+        <f>SUM(G5:G11)</f>
         <v>56810.01</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,7 +949,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -963,8 +962,8 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -972,300 +971,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
         <v>1493.21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1681.92</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>1594.22</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f>SUM(B5:D5)</f>
         <v>4769.3500000000004</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>1626.59</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f>E5+F5</f>
         <v>6395.9400000000005</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
         <v>1689.37</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1552.58</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>1624.44</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
         <v>4866.3899999999994</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>1483.69</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G11" si="1">E6+F6</f>
         <v>6350.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
         <v>1271.1199999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>1709.58</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>1386.26</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>4366.96</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>1693.82</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>6060.78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1192.6099999999999</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1410.88</v>
+      </c>
+      <c r="C8" s="4">
         <v>1584.02</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>1596.72</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>4373.3500000000004</v>
-      </c>
-      <c r="F8" s="1">
+        <v>4591.62</v>
+      </c>
+      <c r="F8" s="4">
         <v>1778.94</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>6152.2900000000009</v>
+        <v>6370.5599999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
         <v>1558.58</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>1526.63</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>1735.51</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>4820.72</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>1416.37</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>6237.09</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
         <v>1483.62</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>1486.91</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>1656.56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>4627.09</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>1645.24</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>6272.33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
         <v>1605.58</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1783.64</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>1526.23</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>4915.4500000000007</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>1493.47</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>6408.920000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8">
         <f>SUM(B5:B11)</f>
-        <v>10294.089999999998</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:F12" si="2">SUM(C5:C11)</f>
+        <v>10512.359999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <f>SUM(C5:C11)</f>
         <v>11325.28</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="2"/>
+      <c r="D12" s="8">
+        <f>SUM(D5:D11)</f>
         <v>11119.94</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="2"/>
-        <v>32739.310000000005</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
+      <c r="E12" s="8">
+        <f>SUM(E5:E11)</f>
+        <v>32957.58</v>
+      </c>
+      <c r="F12" s="8">
+        <f>SUM(F5:F11)</f>
         <v>11138.119999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
         <f>SUM(G5:G11)</f>
-        <v>43877.43</v>
+        <v>44095.7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>42524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>42528</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>